--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2590444.17754167</v>
+        <v>2586139.054544599</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.70122005611984</v>
+        <v>88.09081815943087</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>186.6977984376688</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>136.1484849829224</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760014</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425867</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>214.7463864249945</v>
+        <v>173.7977406421984</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>65.917492685879</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246128</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937502</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>141.1377515054566</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>16.0460892195119</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>45.66399984504064</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>264.2345706177219</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>2.817443115509061</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,13 +1214,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>43.19236509518303</v>
+        <v>20.27697994470623</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.32119989751</v>
+        <v>156.2886548806407</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>238.8356740282675</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>201.7490817309711</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>19.17715139986161</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1815,19 +1815,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>140.7215037338438</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>82.52140782073276</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>68.82097448421544</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>177.0850116794024</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>32.81060261323905</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>63.69463930750803</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2845,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>100.0416311957212</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.02356321678085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>80.67842139643641</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.76947475493767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>29.959001240238</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="C43" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.7157037776617</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>520.5803211678658</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="C2" t="n">
-        <v>520.5803211678658</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="D2" t="n">
-        <v>520.5803211678658</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="E2" t="n">
-        <v>520.5803211678658</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513811</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652797</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652797</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652797</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652797</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652797</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652797</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652797</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.0001061843506</v>
+        <v>583.2614020227604</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>488.3541728409039</v>
+        <v>233.7390564273384</v>
       </c>
       <c r="C3" t="n">
-        <v>313.9011435597769</v>
+        <v>233.7390564273384</v>
       </c>
       <c r="D3" t="n">
-        <v>313.9011435597769</v>
+        <v>233.7390564273384</v>
       </c>
       <c r="E3" t="n">
-        <v>313.9011435597769</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="F3" t="n">
-        <v>313.9011435597769</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264279</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264279</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264279</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="U3" t="n">
-        <v>488.3541728409039</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="V3" t="n">
-        <v>488.3541728409039</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="W3" t="n">
-        <v>488.3541728409039</v>
+        <v>233.7390564273384</v>
       </c>
       <c r="X3" t="n">
-        <v>488.3541728409039</v>
+        <v>233.7390564273384</v>
       </c>
       <c r="Y3" t="n">
-        <v>488.3541728409039</v>
+        <v>233.7390564273384</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>955.7558524817689</v>
+        <v>422.8417151518773</v>
       </c>
       <c r="C5" t="n">
-        <v>955.7558524817689</v>
+        <v>53.87919821146555</v>
       </c>
       <c r="D5" t="n">
-        <v>955.7558524817689</v>
+        <v>53.87919821146555</v>
       </c>
       <c r="E5" t="n">
-        <v>955.7558524817689</v>
+        <v>53.87919821146555</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921614</v>
+        <v>46.93369746226208</v>
       </c>
       <c r="G5" t="n">
-        <v>128.353902506253</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H5" t="n">
-        <v>128.353902506253</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675785</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017225</v>
+        <v>111.6705539017216</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746992</v>
+        <v>277.9807166746972</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030789</v>
+        <v>521.2049416030756</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709225</v>
+        <v>823.5081935709172</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582758</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079246</v>
+        <v>1416.413635079239</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332766</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837892</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540661</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301009</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="T5" t="n">
-        <v>1562.810726301009</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="U5" t="n">
-        <v>1562.810726301009</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="V5" t="n">
-        <v>1345.895184457581</v>
+        <v>1552.349542461925</v>
       </c>
       <c r="W5" t="n">
-        <v>1345.895184457581</v>
+        <v>1199.580887191811</v>
       </c>
       <c r="X5" t="n">
-        <v>1345.895184457581</v>
+        <v>1199.580887191811</v>
       </c>
       <c r="Y5" t="n">
-        <v>955.7558524817689</v>
+        <v>809.4415552159991</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.0515249160007</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="C6" t="n">
-        <v>687.5984956348738</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="D6" t="n">
-        <v>538.6640859736225</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="E6" t="n">
-        <v>379.426630968167</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="F6" t="n">
-        <v>312.8433050228347</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7613181367945</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814676</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675785</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787585</v>
+        <v>61.66788464787527</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806074</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189999</v>
+        <v>399.8722171189977</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223531</v>
+        <v>668.6238185223499</v>
       </c>
       <c r="N6" t="n">
-        <v>958.897120035252</v>
+        <v>958.8971200352478</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228324</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639514</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906556</v>
+        <v>1250.338042626304</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906556</v>
+        <v>1107.774657267257</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906556</v>
+        <v>872.6225490355141</v>
       </c>
       <c r="W6" t="n">
-        <v>1445.878660906556</v>
+        <v>618.3851923073124</v>
       </c>
       <c r="X6" t="n">
-        <v>1238.027160701023</v>
+        <v>410.5336921017796</v>
       </c>
       <c r="Y6" t="n">
-        <v>1030.266861936069</v>
+        <v>202.7733933368257</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675785</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675785</v>
+        <v>200.8828666578933</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675785</v>
+        <v>50.76622724555756</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675785</v>
+        <v>50.76622724555756</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675785</v>
+        <v>50.76622724555756</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675785</v>
+        <v>50.76622724555756</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675785</v>
+        <v>50.76622724555756</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675785</v>
+        <v>50.76622724555756</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675785</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574744</v>
+        <v>64.24066662574685</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584125</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347987</v>
+        <v>206.968037834797</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195386</v>
+        <v>287.8841338195365</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934741</v>
+        <v>342.3101561934715</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858033</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858033</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858033</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858033</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858033</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="U7" t="n">
-        <v>80.68330868548577</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="V7" t="n">
-        <v>34.55805631675785</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="W7" t="n">
-        <v>34.55805631675785</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675785</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675785</v>
+        <v>369.8190495858002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1256.740097465976</v>
+        <v>1175.321806688892</v>
       </c>
       <c r="C8" t="n">
-        <v>1256.740097465976</v>
+        <v>806.35928974848</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.740097465976</v>
+        <v>448.0935911417295</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763686</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232725</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711877</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642787</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642787</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642787</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>2033.47926950591</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>2033.47926950591</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="X8" t="n">
-        <v>2033.47926950591</v>
+        <v>1442.225413373459</v>
       </c>
       <c r="Y8" t="n">
-        <v>1643.339937530098</v>
+        <v>1442.225413373459</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>270.1985349902302</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C9" t="n">
-        <v>270.1985349902302</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D9" t="n">
-        <v>270.1985349902302</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E9" t="n">
-        <v>270.1985349902302</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F9" t="n">
-        <v>123.6639770171152</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="G9" t="n">
-        <v>123.6639770171152</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562341</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1571.516725807465</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1343.415135940729</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V9" t="n">
-        <v>1108.263027708987</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W9" t="n">
-        <v>854.025670980785</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>646.1741707752522</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>438.4138720102982</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809313</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809313</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>208.3401055254769</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>208.3401055254769</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>208.3401055254769</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>208.3401055254769</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.3401055254769</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1447.137698270597</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1157.720528233637</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>929.7309773356195</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7309773356195</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>336.9860575577204</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1021.293348608258</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>852.3571656803509</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>702.2405262680152</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>554.3274326856221</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y22" t="n">
-        <v>1202.941813438498</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6083,10 +6083,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2382.625064077727</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2199.770229732631</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2199.770229732631</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1910.695003076829</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1656.010514870942</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1366.593344833982</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1138.603793935964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6493,10 +6493,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1052.829365488567</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>883.8931825606599</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>733.7765431483241</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>585.863449565931</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>2227.361618603201</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.677130397314</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1683.259960360354</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.270409462336</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1234.477830318806</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>637.9025067654818</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9025067654818</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2325.6047790701</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2106.003314093041</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2106.003314093041</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7417,13 +7417,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>924.6979859831846</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>755.7618030552777</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>605.645163642942</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>457.7320700605488</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1327.139029956954</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1106.346450813424</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>13.30196929556047</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>146.3469868924072</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>111.4161395899842</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>66.09406519747959</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>76.6000735387158</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>40.32043864788585</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.680607402613653</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>45.37941682721004</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>127.2568112467069</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="C43" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>6.705344245269515</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782037.8688308138</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782037.8688308138</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520048</v>
@@ -26337,25 +26337,25 @@
         <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520045</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253146</v>
+        <v>270592.3620253118</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231918</v>
+        <v>115410.0540231933</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742643</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854462</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882025</v>
+        <v>62913.6376588196</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197458</v>
+        <v>27875.25362197503</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263456</v>
+        <v>206604.4229263463</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26441,10 +26441,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936834</v>
+        <v>76435.73471936815</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587231</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-270045.8518751622</v>
+        <v>-270045.8518751629</v>
       </c>
       <c r="C6" t="n">
-        <v>103200.8962203978</v>
+        <v>103200.8962204006</v>
       </c>
       <c r="D6" t="n">
-        <v>282021.2899234649</v>
+        <v>282021.2899234632</v>
       </c>
       <c r="E6" t="n">
-        <v>-72895.04161805846</v>
+        <v>-73242.4208724163</v>
       </c>
       <c r="F6" t="n">
-        <v>528548.1659562057</v>
+        <v>528200.7867018487</v>
       </c>
       <c r="G6" t="n">
-        <v>528548.1659562057</v>
+        <v>528200.7867018488</v>
       </c>
       <c r="H6" t="n">
-        <v>528548.1659562057</v>
+        <v>528200.7867018487</v>
       </c>
       <c r="I6" t="n">
-        <v>528548.1659562058</v>
+        <v>528200.7867018488</v>
       </c>
       <c r="J6" t="n">
-        <v>479483.2212276613</v>
+        <v>479135.841973304</v>
       </c>
       <c r="K6" t="n">
-        <v>465634.5282973855</v>
+        <v>465287.1490430292</v>
       </c>
       <c r="L6" t="n">
-        <v>500672.9123342314</v>
+        <v>500325.5330798735</v>
       </c>
       <c r="M6" t="n">
-        <v>371401.7854046081</v>
+        <v>371054.4061502509</v>
       </c>
       <c r="N6" t="n">
-        <v>528548.165956206</v>
+        <v>528200.7867018487</v>
       </c>
       <c r="O6" t="n">
-        <v>528548.1659562058</v>
+        <v>528200.7867018487</v>
       </c>
       <c r="P6" t="n">
-        <v>528548.1659562059</v>
+        <v>528200.7867018487</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950633</v>
+        <v>758.8996292950613</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594731</v>
+        <v>431.9757039594707</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821587</v>
+        <v>210.4296883821565</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262164</v>
+        <v>94.81103524262278</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931532</v>
+        <v>244.4501167931507</v>
       </c>
       <c r="D4" t="n">
-        <v>110.139252766691</v>
+        <v>110.1392527666926</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734848</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931532</v>
+        <v>244.4501167931507</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766691</v>
+        <v>110.1392527666926</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734847</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931532</v>
+        <v>244.4501167931507</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766691</v>
+        <v>110.1392527666926</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734848</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.5367185999337</v>
+        <v>298.1471204966227</v>
       </c>
     </row>
     <row r="3">
@@ -27460,28 +27460,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681157</v>
       </c>
       <c r="U3" t="n">
-        <v>39.16596997242212</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831052</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>115.5464981779972</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849659</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>22.96166244091361</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760046</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425915</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -27675,10 +27675,10 @@
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>113.0058720451404</v>
+        <v>153.9545178279365</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>79.15171970750488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937516</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074772</v>
+        <v>44.33060630074799</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>84.69623911854254</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304027</v>
+        <v>14.19584997352862</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589129</v>
+        <v>36.91115760589159</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>206.4736434787874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>118.4992710457586</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>324.9348153546259</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,25 +27934,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>51.30844816667209</v>
+        <v>74.22383331714892</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.51078028442734</v>
+        <v>23.54332530129662</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-5.050824733694312e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085679</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429372</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428058</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286709</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520278</v>
+        <v>388.0799144520268</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511787</v>
+        <v>481.4474502511775</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968111</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610709</v>
+        <v>544.3712888610695</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191501</v>
+        <v>514.0343715191489</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860974</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634664</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098735</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898998</v>
+        <v>69.52130774898981</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920257</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868543</v>
+        <v>0.2440682224868537</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030891</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403518</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062498</v>
+        <v>56.20152915062484</v>
       </c>
       <c r="J6" t="n">
-        <v>154.221291647594</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316636</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721897</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658094</v>
+        <v>413.6002979658084</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468676</v>
+        <v>424.5470671468665</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374462</v>
+        <v>388.3776244374452</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872497</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547502</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632162</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947727</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378896</v>
+        <v>6.579516597378879</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757165</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236999</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377988</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734541</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635584</v>
+        <v>96.75348224635559</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260804</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162535</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399143</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528493</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275352</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515003</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235546</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054724</v>
+        <v>61.53307486054708</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391206</v>
+        <v>23.849353923912</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830814</v>
+        <v>5.847259438830799</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656369</v>
+        <v>0.07464586517656349</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,7 +31846,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32077,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33426,7 +33426,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198462</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070472</v>
+        <v>167.9900634070463</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811915</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695384</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644799</v>
+        <v>314.9582252644786</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974634</v>
+        <v>283.9361600974621</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308278</v>
+        <v>207.4834477308267</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890169</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092728</v>
+        <v>27.38366498092688</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573046</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923155</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437911</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635343</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930018</v>
+        <v>245.7813799930008</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729195</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872872</v>
+        <v>68.38629016872818</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554503</v>
+        <v>29.98243465554464</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501526</v>
+        <v>68.57507023501472</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230927</v>
+        <v>75.5939915923087</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876161</v>
+        <v>81.73343028761559</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569242</v>
+        <v>54.97578017569191</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235265</v>
+        <v>27.78676100235225</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,7 +35494,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2586139.054544599</v>
+        <v>2587899.584847385</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>158.2964914343832</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>88.09081815943087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>83.41747001683191</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>136.1484849829224</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443466</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>173.7977406421984</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>316.4947626946413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,16 +977,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>141.1377515054566</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>92.10075891522182</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>40.05337266685065</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>16.0460892195119</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>264.2345706177219</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>68.03304759174442</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>20.27697994470623</v>
+        <v>20.27697994470624</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.2886548806407</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.0202455855125</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>89.43475015428581</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>201.7490817309711</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>19.17715139986161</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>139.1630968205466</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>177.0850116794024</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.81060261323905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>42.54416032354752</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>80.67842139643641</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>29.959001240238</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.23631477519695</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>113.3174219124918</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.2614020227604</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="C2" t="n">
-        <v>583.2614020227604</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="D2" t="n">
-        <v>583.2614020227604</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062754</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>174.897492866622</v>
       </c>
       <c r="G2" t="n">
         <v>15.0020469733056</v>
@@ -4330,52 +4330,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.10234866528</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Y2" t="n">
-        <v>583.2614020227604</v>
+        <v>750.10234866528</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233.7390564273384</v>
+        <v>497.6269409211394</v>
       </c>
       <c r="C3" t="n">
-        <v>233.7390564273384</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="D3" t="n">
-        <v>233.7390564273384</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188285</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188285</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188285</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188285</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4412,49 +4412,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>665.8422779412074</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487954</v>
+        <v>665.8422779412074</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487954</v>
+        <v>665.8422779412074</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323105</v>
+        <v>665.8422779412074</v>
       </c>
       <c r="W3" t="n">
-        <v>233.7390564273384</v>
+        <v>665.8422779412074</v>
       </c>
       <c r="X3" t="n">
-        <v>233.7390564273384</v>
+        <v>665.8422779412074</v>
       </c>
       <c r="Y3" t="n">
-        <v>233.7390564273384</v>
+        <v>665.8422779412074</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F4" t="n">
         <v>15.0020469733056</v>
@@ -4494,46 +4494,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.8417151518773</v>
+        <v>781.1074137586277</v>
       </c>
       <c r="C5" t="n">
-        <v>53.87919821146555</v>
+        <v>412.144896818216</v>
       </c>
       <c r="D5" t="n">
-        <v>53.87919821146555</v>
+        <v>53.87919821146549</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146555</v>
+        <v>53.87919821146549</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226208</v>
+        <v>46.93369746226202</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675766</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675766</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675766</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017216</v>
+        <v>111.6705539017212</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746972</v>
+        <v>277.9807166746973</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030756</v>
+        <v>521.2049416030753</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709172</v>
+        <v>823.5081935709163</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582751</v>
+        <v>1135.31683658275</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079239</v>
+        <v>1416.413635079237</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332757</v>
+        <v>1621.822248332754</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837883</v>
+        <v>1727.90281583788</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837883</v>
+        <v>1727.90281583788</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837883</v>
+        <v>1727.90281583788</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837883</v>
+        <v>1727.90281583788</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837883</v>
+        <v>1474.264851509244</v>
       </c>
       <c r="V5" t="n">
-        <v>1552.349542461925</v>
+        <v>1474.264851509244</v>
       </c>
       <c r="W5" t="n">
-        <v>1199.580887191811</v>
+        <v>1154.573172019707</v>
       </c>
       <c r="X5" t="n">
-        <v>1199.580887191811</v>
+        <v>781.1074137586277</v>
       </c>
       <c r="Y5" t="n">
-        <v>809.4415552159991</v>
+        <v>781.1074137586277</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.55805631675766</v>
+        <v>514.7830985764551</v>
       </c>
       <c r="C6" t="n">
-        <v>34.55805631675766</v>
+        <v>340.3300692953281</v>
       </c>
       <c r="D6" t="n">
-        <v>34.55805631675766</v>
+        <v>340.3300692953281</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675766</v>
+        <v>181.0926142898726</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675766</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675766</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675766</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675766</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787527</v>
+        <v>61.66788464787507</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806062</v>
+        <v>186.1577239806058</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189977</v>
+        <v>399.872217118997</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223499</v>
+        <v>668.6238185223488</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352478</v>
+        <v>958.8971200352462</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228317</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639508</v>
+        <v>1378.176233639506</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="T6" t="n">
-        <v>1250.338042626304</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="U6" t="n">
-        <v>1107.774657267257</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="V6" t="n">
-        <v>872.6225490355141</v>
+        <v>1352.847591295211</v>
       </c>
       <c r="W6" t="n">
-        <v>618.3851923073124</v>
+        <v>1098.61023456701</v>
       </c>
       <c r="X6" t="n">
-        <v>410.5336921017796</v>
+        <v>890.7587343614771</v>
       </c>
       <c r="Y6" t="n">
-        <v>202.7733933368257</v>
+        <v>682.9984355965232</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857991</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8828666578933</v>
+        <v>369.8190495857991</v>
       </c>
       <c r="D7" t="n">
-        <v>50.76622724555756</v>
+        <v>329.3610973970611</v>
       </c>
       <c r="E7" t="n">
-        <v>50.76622724555756</v>
+        <v>181.448003814668</v>
       </c>
       <c r="F7" t="n">
-        <v>50.76622724555756</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="G7" t="n">
-        <v>50.76622724555756</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="H7" t="n">
-        <v>50.76622724555756</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="I7" t="n">
-        <v>50.76622724555756</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675766</v>
+        <v>34.5580563167576</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574685</v>
+        <v>64.24066662574666</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584114</v>
+        <v>132.129986158411</v>
       </c>
       <c r="M7" t="n">
-        <v>206.968037834797</v>
+        <v>206.9680378347965</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195365</v>
+        <v>287.8841338195357</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934715</v>
+        <v>342.3101561934706</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857991</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857991</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857991</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857991</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857991</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857991</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857991</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857991</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857991</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857991</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.321806688892</v>
+        <v>1232.051415525374</v>
       </c>
       <c r="C8" t="n">
-        <v>806.35928974848</v>
+        <v>863.0888985849624</v>
       </c>
       <c r="D8" t="n">
-        <v>448.0935911417295</v>
+        <v>504.8231999782119</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>119.0349473799677</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>112.0894466307642</v>
       </c>
       <c r="G8" t="n">
         <v>43.36919653809306</v>
@@ -4804,19 +4804,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4834,22 +4834,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="W8" t="n">
-        <v>1815.691171634539</v>
+        <v>1605.517173786454</v>
       </c>
       <c r="X8" t="n">
-        <v>1442.225413373459</v>
+        <v>1232.051415525374</v>
       </c>
       <c r="Y8" t="n">
-        <v>1442.225413373459</v>
+        <v>1232.051415525374</v>
       </c>
     </row>
     <row r="9">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.4220188783357</v>
+        <v>292.2997961425817</v>
       </c>
       <c r="C10" t="n">
-        <v>193.4858359504288</v>
+        <v>292.2997961425817</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
         <v>43.36919653809306</v>
@@ -4965,7 +4965,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -5004,10 +5004,10 @@
         <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>292.2997961425817</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>292.2997961425817</v>
       </c>
     </row>
     <row r="11">
@@ -5035,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5059,31 +5059,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,19 +5281,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5302,25 +5302,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,13 +5363,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>336.9860575577204</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5494,61 +5494,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>554.5813165460164</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>385.6451336181095</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2018.188796316454</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.113569660651</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1474.429081454764</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1185.011911417804</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>957.0223605197863</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>736.2297813762561</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,22 +6226,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,7 +6496,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
         <v>402.7245934908939</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,31 +7399,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>726.955532171245</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>558.0193492433381</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7651,7 +7651,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>56.99921249228336</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>146.3469868924072</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>147.0213775686976</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>40.32043864788585</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>40.23897475306318</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.8768876993837</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>144.5956654067403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>118.6564717779744</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>138.8202214113361</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308138</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914261</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253118</v>
+        <v>270592.3620253111</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231933</v>
+        <v>115410.054023194</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742651</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854462</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588196</v>
+        <v>62913.63765881945</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197503</v>
+        <v>27875.25362197517</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263463</v>
+        <v>206604.4229263465</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26441,10 +26441,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936815</v>
+        <v>76435.73471936809</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-270045.8518751629</v>
+        <v>-270045.8518751624</v>
       </c>
       <c r="C6" t="n">
-        <v>103200.8962204006</v>
+        <v>103200.8962204004</v>
       </c>
       <c r="D6" t="n">
-        <v>282021.2899234632</v>
+        <v>282021.2899234626</v>
       </c>
       <c r="E6" t="n">
-        <v>-73242.4208724163</v>
+        <v>-72929.77954349508</v>
       </c>
       <c r="F6" t="n">
-        <v>528200.7867018487</v>
+        <v>528513.4280307703</v>
       </c>
       <c r="G6" t="n">
-        <v>528200.7867018488</v>
+        <v>528513.4280307703</v>
       </c>
       <c r="H6" t="n">
-        <v>528200.7867018487</v>
+        <v>528513.4280307703</v>
       </c>
       <c r="I6" t="n">
-        <v>528200.7867018488</v>
+        <v>528513.4280307699</v>
       </c>
       <c r="J6" t="n">
-        <v>479135.841973304</v>
+        <v>479448.4833022252</v>
       </c>
       <c r="K6" t="n">
-        <v>465287.1490430292</v>
+        <v>465599.7903719506</v>
       </c>
       <c r="L6" t="n">
-        <v>500325.5330798735</v>
+        <v>500638.1744087947</v>
       </c>
       <c r="M6" t="n">
-        <v>371054.4061502509</v>
+        <v>371367.0474791718</v>
       </c>
       <c r="N6" t="n">
-        <v>528200.7867018487</v>
+        <v>528513.4280307699</v>
       </c>
       <c r="O6" t="n">
-        <v>528200.7867018487</v>
+        <v>528513.4280307699</v>
       </c>
       <c r="P6" t="n">
-        <v>528200.7867018487</v>
+        <v>528513.4280307702</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950613</v>
+        <v>758.8996292950607</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594707</v>
+        <v>431.97570395947</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821565</v>
+        <v>210.429688382156</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262278</v>
+        <v>94.81103524262346</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931507</v>
+        <v>244.45011679315</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666926</v>
+        <v>110.1392527666932</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734848</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931507</v>
+        <v>244.4501167931501</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666926</v>
+        <v>110.1392527666933</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931507</v>
+        <v>244.45011679315</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666926</v>
+        <v>110.1392527666932</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734848</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>254.8013417956748</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>298.1471204966227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>66.35277467411771</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681157</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831052</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>115.5464981779972</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849659</v>
+        <v>93.20510176849672</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27636,7 +27636,7 @@
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760046</v>
+        <v>92.85788772760056</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425915</v>
+        <v>23.94240680425932</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>153.9545178279365</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>32.74620602277173</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,16 +27697,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
@@ -27715,7 +27715,7 @@
         <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937516</v>
+        <v>43.32085084937521</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074799</v>
+        <v>44.33060630074807</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>84.69623911854254</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>140.6998282342034</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>108.5621003513617</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27797,7 +27797,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>14.19584997352862</v>
+        <v>30.24193919304061</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589159</v>
+        <v>36.91115760589169</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118.4992710457586</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>343.8376872518824</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27906,7 +27906,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27949,7 +27949,7 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>74.22383331714892</v>
+        <v>74.2238333171489</v>
       </c>
       <c r="I9" t="n">
         <v>36.29946757904885</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.54332530129662</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>47.59522743269984</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.050824733694312e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31077,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31138,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31147,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.050852781085668</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429364</v>
+        <v>31.24454604429361</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286702</v>
+        <v>258.93731622867</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520268</v>
+        <v>388.0799144520265</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511775</v>
+        <v>481.4474502511771</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968098</v>
+        <v>535.7030533968093</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610695</v>
+        <v>544.371288861069</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191489</v>
+        <v>514.0343715191484</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860962</v>
+        <v>438.7164434860958</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634655</v>
+        <v>329.4577782634652</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098728</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898981</v>
+        <v>69.52130774898974</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920252</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868537</v>
+        <v>0.2440682224868534</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030885</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403513</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062484</v>
+        <v>56.20152915062479</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.2212916475934</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431663</v>
+        <v>263.5887514316627</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721888</v>
+        <v>354.4276051721885</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658084</v>
+        <v>413.600297965808</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468665</v>
+        <v>424.5470671468661</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374452</v>
+        <v>388.3776244374449</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872489</v>
+        <v>311.7072835872486</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547497</v>
+        <v>208.3680642547495</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947717</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378879</v>
+        <v>6.579516597378873</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757162</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377983</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673453</v>
+        <v>41.15475366734527</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635559</v>
+        <v>96.7534822463555</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260799</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516253</v>
+        <v>203.4597465162528</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.5197755399136</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.4189747528486</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275347</v>
+        <v>193.4323186275345</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650514997</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054708</v>
+        <v>61.53307486054702</v>
       </c>
       <c r="S7" t="n">
-        <v>23.849353923912</v>
+        <v>23.84935392391198</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830799</v>
+        <v>5.847259438830793</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656349</v>
+        <v>0.07464586517656342</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198394</v>
+        <v>77.89141170198371</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070463</v>
+        <v>167.9900634070459</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811902</v>
+        <v>245.6810352811898</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695371</v>
+        <v>305.3568201695366</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644786</v>
+        <v>314.9582252644781</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974621</v>
+        <v>283.9361600974617</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308267</v>
+        <v>207.4834477308263</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.152088389016</v>
+        <v>107.1520883890157</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092688</v>
+        <v>27.38366498092674</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457304</v>
+        <v>125.7473124573037</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923146</v>
+        <v>215.8732253923143</v>
       </c>
       <c r="M6" t="n">
-        <v>271.46626404379</v>
+        <v>271.4662640437897</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635331</v>
+        <v>293.2053550635328</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930008</v>
+        <v>245.7813799930004</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.7328761729184</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872818</v>
+        <v>68.38629016872798</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554464</v>
+        <v>29.98243465554449</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501472</v>
+        <v>68.57507023501455</v>
       </c>
       <c r="M7" t="n">
-        <v>75.5939915923087</v>
+        <v>75.59399159230853</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761559</v>
+        <v>81.73343028761539</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569191</v>
+        <v>54.97578017569174</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235225</v>
+        <v>27.78676100235208</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
